--- a/pred_ohlcv/54_21/2020-01-20 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 DAD ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-37425.1611</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-37303.07490000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-37514.01870000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-37511.01870000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-37511.01870000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-33795.91550000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-34128.04910000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-34125.04910000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-34125.04910000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-34125.04910000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-34125.04910000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-52322.83240000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-52581.66460000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-53928.96970000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-199918.6261</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-263714.7026640369</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-261495.0519640369</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-252373.701664037</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-250606.732464037</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-248962.847064037</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-251956.501764037</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-256430.505864037</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-255943.021064037</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 DAD ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-37425.1611</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-37303.07490000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-37514.01870000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-37511.01870000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-37511.01870000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-33795.91550000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-34128.04910000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-34125.04910000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-34125.04910000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-34125.04910000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-34125.04910000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-52322.83240000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-52581.66460000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-53928.96970000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-58637.3741</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-199918.6261</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-263714.7026640369</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-261495.0519640369</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-252373.701664037</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-250606.732464037</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-248962.847064037</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-248962.847064037</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-248718.203464037</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-251956.501764037</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-256691.104264037</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-256571.104264037</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-256430.505864037</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-255943.021064037</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
